--- a/IACAssessmentTemplate.v2.1.xlsx
+++ b/IACAssessmentTemplate.v2.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Code\iac.new\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gux215/Desktop/IAC-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D6BE0-EE6B-1A44-8EC4-4ACE13961F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="2" r:id="rId1"/>
@@ -19,16 +20,28 @@
   </sheets>
   <definedNames>
     <definedName name="NY">'Recommendation Info'!$AH$15:$AH$16</definedName>
-    <definedName name="StreamCodes">#REF!</definedName>
     <definedName name="Streams">'Recommendation Info'!$AD$3:$AD$32</definedName>
-    <definedName name="tools">'Recommendation Info'!$AH$3:$AH$12</definedName>
+    <definedName name="tools">'Recommendation Info'!$AH$3:$AH$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
   <si>
     <t># of Employees</t>
   </si>
@@ -273,15 +286,9 @@
     <t>Thousand Gallons</t>
   </si>
   <si>
-    <t>Thousand Feed or Thousand Square Feet</t>
-  </si>
-  <si>
     <t>Bushels</t>
   </si>
   <si>
-    <t>From 0 to 7. See Table -&gt;</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -538,18 +545,30 @@
   </si>
   <si>
     <t>T Gallons</t>
+  </si>
+  <si>
+    <t>Thousand Feet or Thousand Square Feet</t>
+  </si>
+  <si>
+    <t>MEASUR</t>
+  </si>
+  <si>
+    <t>From 0 to 8. See Table -&gt;</t>
+  </si>
+  <si>
+    <t>Units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,7 +885,7 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -880,14 +899,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,7 +999,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -1030,9 +1048,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1070,9 +1088,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,7 +1125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1142,7 +1160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1315,305 +1333,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="22">
+      <c r="B2" s="48"/>
+      <c r="C2" s="21">
         <f t="shared" ref="C2:C8" si="0">B2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="22">
+      <c r="B3" s="48"/>
+      <c r="C3" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="23">
+      <c r="B4" s="48"/>
+      <c r="C4" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="13">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="24">
+      <c r="B6" s="48"/>
+      <c r="C6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="22">
+      <c r="B7" s="48"/>
+      <c r="C7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>4</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="24">
+      <c r="B8" s="48"/>
+      <c r="C8" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>5</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="24" t="str">
-        <f>VLOOKUP(B9,F3:G10,2,)</f>
+      <c r="B9" s="48"/>
+      <c r="C9" s="23" t="str">
+        <f>VLOOKUP(B9,F3:G11,2,)</f>
         <v>Not Available</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="D9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="12">
         <v>6</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="G9" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="24">
+      <c r="B10" s="48"/>
+      <c r="C10" s="23">
         <f t="shared" ref="C10:C16" si="1">B10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="12">
         <v>7</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="24">
+      <c r="B11" s="48"/>
+      <c r="C11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="14">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="24">
+      <c r="B12" s="48"/>
+      <c r="C12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="24">
+      <c r="B13" s="48"/>
+      <c r="C13" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="24">
+      <c r="B14" s="48"/>
+      <c r="C14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="24">
+      <c r="B15" s="48"/>
+      <c r="C15" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="24">
+      <c r="B16" s="48"/>
+      <c r="C16" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>84</v>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <dataValidations count="7">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
-      <formula2>7</formula2>
+      <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>4</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>6</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B8">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B8" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B16">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B16" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>1500</formula1>
       <formula2>8760</formula2>
     </dataValidation>
@@ -1624,602 +1650,602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="55"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="24">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="25">
-        <f>B3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="20" t="str">
         <f>IF(D3,F3/D3,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H3" s="10" t="str">
+      <c r="H3" s="9" t="str">
         <f t="shared" ref="H3:H11" si="0">"per "&amp;E3</f>
         <v>per kWh</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="25">
+        <v>85</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="24">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="20">
         <f t="shared" ref="F4:F18" si="1">C4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="20" t="str">
         <f>IF(D4,F4/D4,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="H4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>per kW months/yr</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+        <v>86</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="20" t="str">
         <f>IF(D5,F5/D5,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">per </v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="25">
+        <v>87</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="24">
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="E6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="20" t="str">
         <f t="shared" ref="G6:G18" si="2">IF(D6,F6/D6,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="25">
+        <v>88</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="24">
         <f t="shared" ref="D7:D18" si="3">B7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="E7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="25">
+        <v>89</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="E8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="25">
+        <v>90</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="E9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="25">
+        <v>91</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="E10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="25">
+        <v>92</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="E11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="25">
+        <v>93</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="E12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="9" t="str">
         <f t="shared" ref="H12:H18" si="4">"per "&amp;E12</f>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="25">
+        <v>94</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="9" t="str">
         <f t="shared" si="4"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="25">
+        <v>95</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="E14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="9" t="str">
         <f t="shared" si="4"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="25">
+        <v>96</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="E15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="9" t="str">
         <f t="shared" si="4"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="25">
+        <v>97</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="E16" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="9" t="str">
         <f t="shared" si="4"/>
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="25">
+        <v>132</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="E17" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="9" t="str">
         <f t="shared" si="4"/>
         <v>per T Gallons</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="25">
+        <v>98</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="21">
+      <c r="E18" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="20" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="9" t="str">
         <f t="shared" si="4"/>
         <v>per T Gallons</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="25">
+        <v>99</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="24">
         <f t="shared" ref="D19:D23" si="5">B19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="21">
+      <c r="E19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="20">
         <f t="shared" ref="F19:F23" si="6">C19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="20" t="str">
         <f t="shared" ref="G19:G23" si="7">IF(D19,F19/D19,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="9" t="str">
         <f t="shared" ref="H19:H23" si="8">"per "&amp;E19</f>
         <v>per Gallons</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="25">
+        <v>100</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="E20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="20" t="str">
         <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
-      <c r="H20" s="10" t="str">
+      <c r="H20" s="9" t="str">
         <f t="shared" si="8"/>
         <v>per Gallons</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="25">
+        <v>101</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="20" t="str">
         <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="H21" s="9" t="str">
         <f t="shared" si="8"/>
         <v>per Pounds</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="25">
+        <v>102</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="20" t="str">
         <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="H22" s="9" t="str">
         <f t="shared" si="8"/>
         <v>per Pounds</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="25">
+        <v>103</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="20" t="str">
         <f t="shared" si="7"/>
         <v>n/a</v>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="H23" s="9" t="str">
         <f t="shared" si="8"/>
         <v>per Pounds</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0"/>
+  <sheetProtection sheet="1" formatColumns="0"/>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C23">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2229,74 +2255,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="6"/>
-    <col min="12" max="12" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.54296875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" customWidth="1"/>
-    <col min="23" max="23" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="6"/>
+    <col min="12" max="12" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="E2" s="28" t="s">
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="36" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="AE2" t="s">
         <v>26</v>
       </c>
@@ -2304,7 +2332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2312,67 +2340,67 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="P3" s="39" t="s">
+      <c r="N3" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="41" t="s">
+      <c r="R3" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>24</v>
@@ -2381,1045 +2409,1051 @@
         <v>25</v>
       </c>
       <c r="AD3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AE3" t="s">
         <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH3" s="29" t="s">
         <v>74</v>
       </c>
       <c r="AI3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="51" t="str">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="50" t="str">
         <f>IF(E4="","",VLOOKUP(E4,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="52" t="str">
+      <c r="H4" s="32"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="51" t="str">
         <f>IF(I4="","",VLOOKUP(I4,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="53" t="str">
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="52" t="str">
         <f>IF(M4="","",VLOOKUP(M4,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="52" t="str">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="51" t="str">
         <f>IF(Q4="","",VLOOKUP(Q4,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="54" t="str">
+      <c r="T4" s="42"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="53" t="str">
         <f>IF(U4="","",VLOOKUP(U4,$AH$3:$AI$12,2,FALSE))</f>
         <v/>
       </c>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
       <c r="AD4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AE4" t="s">
         <v>28</v>
       </c>
       <c r="AF4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH4" s="30" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="AH4" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="AI4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="51" t="str">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="50" t="str">
         <f t="shared" ref="G5:G43" si="0">IF(E5="","",VLOOKUP(E5,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="52" t="str">
+      <c r="H5" s="32"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="51" t="str">
         <f t="shared" ref="K5:K43" si="1">IF(I5="","",VLOOKUP(I5,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="53" t="str">
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="52" t="str">
         <f t="shared" ref="O5:O43" si="2">IF(M5="","",VLOOKUP(M5,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="52" t="str">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="51" t="str">
         <f t="shared" ref="S5:S43" si="3">IF(Q5="","",VLOOKUP(Q5,$AD$3:$AF$32,3,FALSE))</f>
         <v/>
       </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="54" t="str">
+      <c r="T5" s="42"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="53" t="str">
         <f t="shared" ref="V5:V43" si="4">IF(U5="","",VLOOKUP(U5,$AH$3:$AI$12,2,FALSE))</f>
         <v/>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
       <c r="AD5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE5" t="s">
         <v>29</v>
       </c>
       <c r="AF5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH5" s="29" t="s">
         <v>120</v>
-      </c>
-      <c r="AH5" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="AI5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="51" t="str">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="52" t="str">
+      <c r="H6" s="32"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="53" t="str">
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="52" t="str">
+      <c r="P6" s="44"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="54" t="str">
+      <c r="T6" s="42"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
       <c r="AD6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE6" t="s">
         <v>30</v>
       </c>
       <c r="AF6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH6" s="30" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="AH6" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="AI6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="51" t="str">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="52" t="str">
+      <c r="H7" s="32"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="53" t="str">
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="52" t="str">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="54" t="str">
+      <c r="T7" s="42"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
       <c r="AD7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AE7" t="s">
         <v>31</v>
       </c>
       <c r="AF7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH7" s="30" t="s">
-        <v>124</v>
+        <v>110</v>
+      </c>
+      <c r="AH7" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="AI7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="51" t="str">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="52" t="str">
+      <c r="H8" s="32"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="53" t="str">
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="52" t="str">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="54" t="str">
+      <c r="T8" s="42"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
       <c r="AD8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE8" t="s">
         <v>32</v>
       </c>
       <c r="AF8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH8" s="30" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="AH8" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="AI8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="51" t="str">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="52" t="str">
+      <c r="H9" s="32"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="53" t="str">
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="52" t="str">
+      <c r="P9" s="44"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T9" s="43"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="54" t="str">
+      <c r="T9" s="42"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
       <c r="AD9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE9" t="s">
         <v>33</v>
       </c>
       <c r="AF9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH9" s="30" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="AH9" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="AI9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="51" t="str">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="52" t="str">
+      <c r="H10" s="32"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="53" t="str">
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="52" t="str">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T10" s="43"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="54" t="str">
+      <c r="T10" s="42"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
       <c r="AD10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE10" t="s">
         <v>34</v>
       </c>
       <c r="AF10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH10" s="30" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="AH10" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="AI10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="51" t="str">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="52" t="str">
+      <c r="H11" s="32"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="53" t="str">
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="52" t="str">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="54" t="str">
+      <c r="T11" s="42"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
       <c r="AD11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AE11" t="s">
         <v>35</v>
       </c>
       <c r="AF11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH11" s="30" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="AH11" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="AI11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="51" t="str">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="52" t="str">
+      <c r="H12" s="32"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="53" t="str">
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="52" t="str">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="54" t="str">
+      <c r="T12" s="42"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
       <c r="AD12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE12" t="s">
         <v>36</v>
       </c>
       <c r="AF12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH12" s="30" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="AH12" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="AI12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="51" t="str">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="52" t="str">
+      <c r="H13" s="32"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="53" t="str">
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="52" t="str">
+      <c r="P13" s="44"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T13" s="43"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="54" t="str">
+      <c r="T13" s="42"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
       <c r="AD13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE13" t="s">
         <v>37</v>
       </c>
       <c r="AF13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+        <v>110</v>
+      </c>
+      <c r="AH13" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="51" t="str">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="52" t="str">
+      <c r="H14" s="32"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="53" t="str">
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="52" t="str">
+      <c r="P14" s="44"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="54" t="str">
+      <c r="T14" s="42"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
       <c r="AD14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AE14" t="s">
         <v>38</v>
       </c>
       <c r="AF14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="51" t="str">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="52" t="str">
+      <c r="H15" s="32"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="53" t="str">
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="52" t="str">
+      <c r="P15" s="44"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T15" s="43"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="54" t="str">
+      <c r="T15" s="42"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
       <c r="AD15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AE15" t="s">
         <v>39</v>
       </c>
       <c r="AF15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH15" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+        <v>110</v>
+      </c>
+      <c r="AH15" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="51" t="str">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="52" t="str">
+      <c r="H16" s="32"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="53" t="str">
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="52" t="str">
+      <c r="P16" s="44"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T16" s="43"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="54" t="str">
+      <c r="T16" s="42"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
       <c r="AD16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AE16" t="s">
         <v>40</v>
       </c>
       <c r="AF16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH16" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
+        <v>110</v>
+      </c>
+      <c r="AH16" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="51" t="str">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="52" t="str">
+      <c r="H17" s="32"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="53" t="str">
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="52" t="str">
+      <c r="P17" s="44"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="54" t="str">
+      <c r="T17" s="42"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
       <c r="AD17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="51" t="str">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="52" t="str">
+      <c r="H18" s="32"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="53" t="str">
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="52" t="str">
+      <c r="P18" s="44"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T18" s="43"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="54" t="str">
+      <c r="T18" s="42"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
       <c r="AD18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AE18" t="s">
         <v>41</v>
       </c>
       <c r="AF18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="51" t="str">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="52" t="str">
+      <c r="H19" s="32"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="53" t="str">
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="52" t="str">
+      <c r="P19" s="44"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T19" s="43"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="54" t="str">
+      <c r="T19" s="42"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
       <c r="AD19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE19" t="s">
         <v>42</v>
       </c>
       <c r="AF19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="51" t="str">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="52" t="str">
+      <c r="H20" s="32"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="53" t="str">
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="52" t="str">
+      <c r="P20" s="44"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T20" s="43"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="54" t="str">
+      <c r="T20" s="42"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
       <c r="AD20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AE20" t="s">
         <v>43</v>
       </c>
       <c r="AF20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="51" t="str">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="52" t="str">
+      <c r="H21" s="32"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="53" t="str">
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="52" t="str">
+      <c r="P21" s="44"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T21" s="43"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="54" t="str">
+      <c r="T21" s="42"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
       <c r="AD21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AE21" t="s">
         <v>44</v>
@@ -3428,52 +3462,52 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="51" t="str">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="52" t="str">
+      <c r="H22" s="32"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="53" t="str">
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="52" t="str">
+      <c r="P22" s="44"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T22" s="43"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="54" t="str">
+      <c r="T22" s="42"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
       <c r="AD22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AE22" t="s">
         <v>45</v>
@@ -3482,52 +3516,52 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="51" t="str">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="52" t="str">
+      <c r="H23" s="32"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="53" t="str">
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="52" t="str">
+      <c r="P23" s="44"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T23" s="43"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="54" t="str">
+      <c r="T23" s="42"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
       <c r="AD23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AE23" t="s">
         <v>46</v>
@@ -3536,1009 +3570,1006 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="51" t="str">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="52" t="str">
+      <c r="H24" s="32"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="53" t="str">
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="52" t="str">
+      <c r="P24" s="44"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T24" s="43"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="54" t="str">
+      <c r="T24" s="42"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
       <c r="AD24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AE24" t="s">
         <v>47</v>
       </c>
       <c r="AF24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="51" t="str">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="52" t="str">
+      <c r="H25" s="32"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="53" t="str">
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="52" t="str">
+      <c r="P25" s="44"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T25" s="43"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="54" t="str">
+      <c r="T25" s="42"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
       <c r="AD25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AE25" t="s">
         <v>48</v>
       </c>
       <c r="AF25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="51" t="str">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="52" t="str">
+      <c r="H26" s="32"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="53" t="str">
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="52" t="str">
+      <c r="P26" s="44"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T26" s="43"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="54" t="str">
+      <c r="T26" s="42"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
       <c r="AD26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE26" t="s">
         <v>49</v>
       </c>
       <c r="AF26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="51" t="str">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="52" t="str">
+      <c r="H27" s="32"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="53" t="str">
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="52" t="str">
+      <c r="P27" s="44"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T27" s="43"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="54" t="str">
+      <c r="T27" s="42"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
       <c r="AD27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AE27" t="s">
         <v>50</v>
       </c>
       <c r="AF27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="51" t="str">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="52" t="str">
+      <c r="H28" s="32"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="53" t="str">
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="52" t="str">
+      <c r="P28" s="44"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="43"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="54" t="str">
+      <c r="T28" s="42"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
       <c r="AD28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AE28" t="s">
         <v>51</v>
       </c>
       <c r="AF28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="51" t="str">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="52" t="str">
+      <c r="H29" s="32"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="53" t="str">
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="52" t="str">
+      <c r="P29" s="44"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T29" s="43"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="54" t="str">
+      <c r="T29" s="42"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
       <c r="AD29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AE29" t="s">
         <v>52</v>
       </c>
       <c r="AF29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="51" t="str">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="52" t="str">
+      <c r="H30" s="32"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="53" t="str">
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="52" t="str">
+      <c r="P30" s="44"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T30" s="43"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="54" t="str">
+      <c r="T30" s="42"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
       <c r="AD30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AE30" t="s">
         <v>53</v>
       </c>
       <c r="AF30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="51" t="str">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="52" t="str">
+      <c r="H31" s="32"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="53" t="str">
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="52" t="str">
+      <c r="P31" s="44"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T31" s="43"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="54" t="str">
+      <c r="T31" s="42"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
       <c r="AD31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AE31" t="s">
         <v>54</v>
       </c>
       <c r="AF31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="51" t="str">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="52" t="str">
+      <c r="H32" s="32"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="53" t="str">
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="52" t="str">
+      <c r="P32" s="44"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T32" s="43"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="54" t="str">
+      <c r="T32" s="42"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
       <c r="AD32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AE32" t="s">
         <v>55</v>
       </c>
-      <c r="AF32" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AF32" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="51" t="str">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="52" t="str">
+      <c r="H33" s="32"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="53" t="str">
+      <c r="L33" s="42"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="52" t="str">
+      <c r="P33" s="44"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T33" s="43"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="54" t="str">
+      <c r="T33" s="42"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="51" t="str">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="52" t="str">
+      <c r="H34" s="32"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L34" s="43"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="53" t="str">
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="52" t="str">
+      <c r="P34" s="44"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T34" s="43"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="54" t="str">
+      <c r="T34" s="42"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="51" t="str">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="52" t="str">
+      <c r="H35" s="32"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="53" t="str">
+      <c r="L35" s="42"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="52" t="str">
+      <c r="P35" s="44"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T35" s="43"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="54" t="str">
+      <c r="T35" s="42"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="51" t="str">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="52" t="str">
+      <c r="H36" s="32"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L36" s="43"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="53" t="str">
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="52" t="str">
+      <c r="P36" s="44"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T36" s="43"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="54" t="str">
+      <c r="T36" s="42"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="51" t="str">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="52" t="str">
+      <c r="H37" s="32"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L37" s="43"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="53" t="str">
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="52" t="str">
+      <c r="P37" s="44"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T37" s="43"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="54" t="str">
+      <c r="T37" s="42"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="51" t="str">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="52" t="str">
+      <c r="H38" s="32"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L38" s="43"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="53" t="str">
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="52" t="str">
+      <c r="P38" s="44"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T38" s="43"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="54" t="str">
+      <c r="T38" s="42"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="51" t="str">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="52" t="str">
+      <c r="H39" s="32"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L39" s="43"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="53" t="str">
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="52" t="str">
+      <c r="P39" s="44"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T39" s="43"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="54" t="str">
+      <c r="T39" s="42"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="51" t="str">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="52" t="str">
+      <c r="H40" s="32"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L40" s="43"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="53" t="str">
+      <c r="L40" s="42"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="52" t="str">
+      <c r="P40" s="44"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T40" s="43"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="54" t="str">
+      <c r="T40" s="42"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="51" t="str">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="52" t="str">
+      <c r="H41" s="32"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L41" s="43"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="53" t="str">
+      <c r="L41" s="42"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="52" t="str">
+      <c r="P41" s="44"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="54" t="str">
+      <c r="T41" s="42"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="51" t="str">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="52" t="str">
+      <c r="H42" s="32"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="53" t="str">
+      <c r="L42" s="42"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="52" t="str">
+      <c r="P42" s="44"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T42" s="43"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="54" t="str">
+      <c r="T42" s="42"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="51" t="str">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="52" t="str">
+      <c r="H43" s="32"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="53" t="str">
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="52" t="str">
+      <c r="P43" s="44"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T43" s="43"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="54" t="str">
+      <c r="T43" s="42"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Z43">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Z43" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>NY</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4:U43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4:U43" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>tools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I43 M4:M43 E4:E43 Q4:Q43" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>Streams</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C43">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C43" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>1</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B43">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B43" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>5</formula1>
       <formula2>6</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M43 E4:E43 Q4:Q43">
-      <formula1>Streams</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4547,20 +4578,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="50" t="str">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="str">
         <f>'General Info'!A1</f>
         <v>GENERAL INFO</v>
       </c>
@@ -4573,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'General Info'!A2</f>
         <v>SIC Code: (4 Digits)</v>
@@ -4587,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'General Info'!A3</f>
         <v>NAICS Code: (6 Digits)</v>
@@ -4601,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'General Info'!A4</f>
         <v>Annual Sales ($)</v>
@@ -4615,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'General Info'!A5</f>
         <v># of Employees</v>
@@ -4629,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'General Info'!A6</f>
         <v>Plant Area (sqft.)</v>
@@ -4643,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>'General Info'!A7</f>
         <v>Principle Product</v>
@@ -4657,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'General Info'!A8</f>
         <v>Annual Production</v>
@@ -4671,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'General Info'!A9</f>
         <v>Production Units</v>
@@ -4685,7 +4718,7 @@
         <v>Not Available</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'General Info'!A10</f>
         <v>Production Hrs. Annual</v>
@@ -4699,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'General Info'!A11</f>
         <v>Motor Horsepower Capacity</v>
@@ -4713,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'General Info'!A12</f>
         <v>Largest Motor Horsepower</v>
@@ -4727,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'General Info'!A13</f>
         <v>Steam Capacity(LBM/Hr)</v>
@@ -4741,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>'General Info'!A14</f>
         <v>Max Steam Pressure(PSIG)</v>
@@ -4755,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>'General Info'!A15</f>
         <v>Air Compressor HP</v>
@@ -4769,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'General Info'!A16</f>
         <v>Max Compressed Air Press(PSIG)</v>
@@ -4783,8 +4816,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="50" t="str">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="str">
         <f>'Energy-Waste Info'!A2</f>
         <v>Energy/Waste Info</v>
       </c>
@@ -4817,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Energy-Waste Info'!A3</f>
         <v xml:space="preserve">Electrical Consumption </v>
@@ -4851,7 +4884,7 @@
         <v>per kWh</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Energy-Waste Info'!A4</f>
         <v xml:space="preserve">Electrical Demand </v>
@@ -4885,7 +4918,7 @@
         <v>per kW months/yr</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Energy-Waste Info'!A5</f>
         <v xml:space="preserve">Other Electrical Fees </v>
@@ -4919,7 +4952,7 @@
         <v xml:space="preserve">per </v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>'Energy-Waste Info'!A6</f>
         <v xml:space="preserve">Natural Gas </v>
@@ -4953,7 +4986,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>'Energy-Waste Info'!A7</f>
         <v xml:space="preserve">L.P.G. </v>
@@ -4987,7 +5020,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Energy-Waste Info'!A8</f>
         <v xml:space="preserve">#1 Fuel Oil </v>
@@ -5021,7 +5054,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Energy-Waste Info'!A9</f>
         <v xml:space="preserve">#2 Fuel Oil </v>
@@ -5055,7 +5088,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Energy-Waste Info'!A10</f>
         <v xml:space="preserve">#4 Fuel Oil </v>
@@ -5089,7 +5122,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Energy-Waste Info'!A11</f>
         <v xml:space="preserve">#6 Fuel Oil </v>
@@ -5123,7 +5156,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Energy-Waste Info'!A12</f>
         <v xml:space="preserve">Coal </v>
@@ -5157,7 +5190,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Energy-Waste Info'!A13</f>
         <v xml:space="preserve">Wood </v>
@@ -5191,7 +5224,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>'Energy-Waste Info'!A14</f>
         <v xml:space="preserve">Paper </v>
@@ -5225,7 +5258,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>'Energy-Waste Info'!A15</f>
         <v xml:space="preserve">Other Gas </v>
@@ -5259,7 +5292,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Energy-Waste Info'!A16</f>
         <v xml:space="preserve">Other Energy </v>
@@ -5293,7 +5326,7 @@
         <v>per MMBtu</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Energy-Waste Info'!A17</f>
         <v>Water Usage</v>
@@ -5327,7 +5360,7 @@
         <v>per T Gallons</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Energy-Waste Info'!A18</f>
         <v xml:space="preserve">Water Disposal </v>
@@ -5361,7 +5394,7 @@
         <v>per T Gallons</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Energy-Waste Info'!A19</f>
         <v xml:space="preserve">Other Liquid (non-haz) </v>
@@ -5395,7 +5428,7 @@
         <v>per Gallons</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Energy-Waste Info'!A20</f>
         <v xml:space="preserve">Other Liquid (haz) </v>
@@ -5429,7 +5462,7 @@
         <v>per Gallons</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Energy-Waste Info'!A21</f>
         <v xml:space="preserve">Solid Waste (non-haz) </v>
@@ -5463,7 +5496,7 @@
         <v>per Pounds</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>'Energy-Waste Info'!A22</f>
         <v xml:space="preserve">Solid Waste (haz) </v>
@@ -5497,7 +5530,7 @@
         <v>per Pounds</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>'Energy-Waste Info'!A23</f>
         <v xml:space="preserve">Gaseous Waste </v>
@@ -5531,7 +5564,7 @@
         <v>per Pounds</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>'Recommendation Info'!A2</f>
         <v>0</v>
@@ -5637,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>'Recommendation Info'!A3</f>
         <v>0</v>
@@ -5743,7 +5776,7 @@
         <v>Rebates</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>'Recommendation Info'!A4</f>
         <v>1</v>
@@ -5849,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>'Recommendation Info'!A5</f>
         <v>2</v>
@@ -5955,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>'Recommendation Info'!A6</f>
         <v>3</v>
@@ -6061,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>'Recommendation Info'!A7</f>
         <v>4</v>
@@ -6167,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>'Recommendation Info'!A8</f>
         <v>5</v>
@@ -6273,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>'Recommendation Info'!A9</f>
         <v>6</v>
@@ -6379,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>'Recommendation Info'!A10</f>
         <v>7</v>
@@ -6485,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>'Recommendation Info'!A11</f>
         <v>8</v>
@@ -6591,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>'Recommendation Info'!A12</f>
         <v>9</v>
@@ -6697,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>'Recommendation Info'!A13</f>
         <v>10</v>
@@ -6803,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>'Recommendation Info'!A14</f>
         <v>11</v>
@@ -6909,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>'Recommendation Info'!A15</f>
         <v>12</v>
@@ -7015,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <f>'Recommendation Info'!A16</f>
         <v>13</v>
@@ -7121,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <f>'Recommendation Info'!A17</f>
         <v>14</v>
@@ -7227,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>'Recommendation Info'!A18</f>
         <v>15</v>
@@ -7333,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>'Recommendation Info'!A19</f>
         <v>16</v>
@@ -7439,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>'Recommendation Info'!A20</f>
         <v>17</v>
@@ -7545,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>'Recommendation Info'!A21</f>
         <v>18</v>
@@ -7651,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63">
         <f>'Recommendation Info'!A22</f>
         <v>19</v>
@@ -7757,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>'Recommendation Info'!A23</f>
         <v>20</v>
@@ -7863,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>'Recommendation Info'!A24</f>
         <v>21</v>
@@ -7969,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66">
         <f>'Recommendation Info'!A25</f>
         <v>22</v>
@@ -8075,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>'Recommendation Info'!A26</f>
         <v>23</v>
@@ -8181,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68">
         <f>'Recommendation Info'!A27</f>
         <v>24</v>
@@ -8287,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69">
         <f>'Recommendation Info'!A28</f>
         <v>25</v>
@@ -8393,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70">
         <f>'Recommendation Info'!A29</f>
         <v>26</v>
@@ -8499,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71">
         <f>'Recommendation Info'!A30</f>
         <v>27</v>
@@ -8605,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72">
         <f>'Recommendation Info'!A31</f>
         <v>28</v>
@@ -8711,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73">
         <f>'Recommendation Info'!A32</f>
         <v>29</v>
@@ -8817,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74">
         <f>'Recommendation Info'!A33</f>
         <v>30</v>
@@ -8923,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75">
         <f>'Recommendation Info'!A34</f>
         <v>31</v>
@@ -9029,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76">
         <f>'Recommendation Info'!A35</f>
         <v>32</v>
@@ -9135,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77">
         <f>'Recommendation Info'!A36</f>
         <v>33</v>
@@ -9241,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78">
         <f>'Recommendation Info'!A37</f>
         <v>34</v>
@@ -9347,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79">
         <f>'Recommendation Info'!A38</f>
         <v>35</v>
@@ -9453,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80">
         <f>'Recommendation Info'!A39</f>
         <v>36</v>
@@ -9559,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81">
         <f>'Recommendation Info'!A40</f>
         <v>37</v>
@@ -9665,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82">
         <f>'Recommendation Info'!A41</f>
         <v>38</v>
@@ -9771,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83">
         <f>'Recommendation Info'!A42</f>
         <v>39</v>
@@ -9877,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84">
         <f>'Recommendation Info'!A43</f>
         <v>40</v>
